--- a/sources/case/MemberTransfer.xlsx
+++ b/sources/case/MemberTransfer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
   <si>
     <t>CaseID</t>
   </si>
@@ -29,201 +29,222 @@
     <t>Path</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>员工调整</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>BasePath</t>
+  </si>
+  <si>
+    <t>http://console.t.upvi.com/bapi</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>contentType</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>adjust_subordinates</t>
+  </si>
+  <si>
+    <t>1人</t>
+  </si>
+  <si>
+    <t>need_notify_employee</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>adjust_report_to</t>
+  </si>
+  <si>
+    <t>测试12</t>
+  </si>
+  <si>
+    <t>notify_content</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>employee_no</t>
+  </si>
+  <si>
+    <t>microfastup-20</t>
+  </si>
+  <si>
+    <t>adjust_position_ID</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>transfer</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>测试10</t>
+  </si>
+  <si>
+    <t>adjust_report_to_ID</t>
+  </si>
+  <si>
+    <t>7e2cf1a7-b2e4-11e7-93d8-5254001aba5d</t>
+  </si>
+  <si>
+    <t>employee_ID</t>
+  </si>
+  <si>
+    <t>7e2bb13d-b2e4-11e7-93d8-5254001aba5d</t>
+  </si>
+  <si>
+    <t>organization_ID</t>
+  </si>
+  <si>
+    <t>38671a25-b79d-11e7-83f4-5254001aba5d</t>
+  </si>
+  <si>
+    <t>adjust_organization_ID</t>
+  </si>
+  <si>
+    <t>adjust_subordinates_detail</t>
+  </si>
+  <si>
+    <t>[{"uuid":"7e2c4e7a-b2e4-11e7-93d8-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>effective_date</t>
+  </si>
+  <si>
+    <t>2017-10-24T11:10:20+08:00</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>调整审批测试</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>subordinates</t>
+  </si>
+  <si>
+    <t>0人</t>
+  </si>
+  <si>
+    <t>subordinates_detail</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>position_ID</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>approval_create</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>approval_creating</t>
+  </si>
+  <si>
+    <t>Mem_Transfer_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mem_Transfer_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberTransfer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/hr/v1/formrecords?form=employee_adjust</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>员工调整</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>BasePath</t>
-  </si>
-  <si>
-    <t>http://console.t.upvi.com/bapi</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>contentType</t>
-  </si>
-  <si>
-    <t>application/json</t>
-  </si>
-  <si>
-    <t>adjust_subordinates</t>
-  </si>
-  <si>
-    <t>1人</t>
-  </si>
-  <si>
-    <t>need_notify_employee</t>
-  </si>
-  <si>
-    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>adjust_organization</t>
-  </si>
-  <si>
-    <t>部门2</t>
-  </si>
-  <si>
-    <t>adjust_report_to</t>
-  </si>
-  <si>
-    <t>测试12</t>
-  </si>
-  <si>
-    <t>notify_content</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>employee_no</t>
-  </si>
-  <si>
-    <t>microfastup-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>adjust_position</t>
-  </si>
-  <si>
-    <t>岗位2</t>
-  </si>
-  <si>
-    <t>adjust_position_ID</t>
-  </si>
-  <si>
-    <t>39c051b8-b79d-11e7-83f4-5254001aba5d</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>transfer</t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>测试10</t>
-  </si>
-  <si>
-    <t>adjust_report_to_ID</t>
-  </si>
-  <si>
-    <t>7e2cf1a7-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
-    <t>employee_ID</t>
-  </si>
-  <si>
-    <t>7e2bb13d-b2e4-11e7-93d8-5254001aba5d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjust_position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>organization</t>
-  </si>
-  <si>
-    <t>部门1</t>
-  </si>
-  <si>
-    <t>organization_ID</t>
-  </si>
-  <si>
-    <t>38671a25-b79d-11e7-83f4-5254001aba5d</t>
-  </si>
-  <si>
-    <t>adjust_organization_ID</t>
-  </si>
-  <si>
-    <t>39775ac1-b79d-11e7-83f4-5254001aba5d</t>
-  </si>
-  <si>
-    <t>adjust_subordinates_detail</t>
-  </si>
-  <si>
-    <t>[{"uuid":"7e2c4e7a-b2e4-11e7-93d8-5254001aba5d"}]</t>
-  </si>
-  <si>
-    <t>effective_date</t>
-  </si>
-  <si>
-    <t>2017-10-24T11:10:20+08:00</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>调整审批测试</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>subordinates</t>
-  </si>
-  <si>
-    <t>0人</t>
-  </si>
-  <si>
-    <t>subordinates_detail</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>position_ID</t>
-  </si>
-  <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
-  </si>
-  <si>
-    <t>is_deleted</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>approval_create</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>approval_creating</t>
-  </si>
-  <si>
-    <t>Mem_Transfer_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mem_Transfer_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberTransfer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.uuid}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +577,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -571,42 +592,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -620,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -634,14 +655,14 @@
     <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="40.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="50.25" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
@@ -656,141 +677,141 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>42</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>44</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="R2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" t="s">
-        <v>52</v>
-      </c>
       <c r="W2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -803,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -813,7 +834,7 @@
     <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
@@ -826,11 +847,11 @@
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="40.375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="40.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="50.25" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
@@ -843,165 +864,165 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="Q1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" t="s">
         <v>42</v>
       </c>
-      <c r="T1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>51</v>
-      </c>
       <c r="Z1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" t="s">
         <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y2" t="s">
         <v>43</v>
       </c>
-      <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>52</v>
-      </c>
       <c r="Z2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AA2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/MemberTransfer.xlsx
+++ b/sources/case/MemberTransfer.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
   <si>
     <t>CaseID</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>organization_ID</t>
-  </si>
-  <si>
-    <t>38671a25-b79d-11e7-83f4-5254001aba5d</t>
   </si>
   <si>
     <t>adjust_organization_ID</t>
@@ -577,7 +574,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -612,7 +609,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -624,7 +621,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -641,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -661,7 +658,7 @@
     <col min="12" max="12" width="40.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="41.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="50.25" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.5" bestFit="1" customWidth="1"/>
@@ -683,7 +680,7 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
@@ -695,7 +692,7 @@
         <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s">
         <v>21</v>
@@ -713,39 +710,39 @@
         <v>28</v>
       </c>
       <c r="N1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O1" t="s">
         <v>30</v>
       </c>
       <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" t="s">
-        <v>33</v>
-      </c>
       <c r="R1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
         <v>39</v>
       </c>
-      <c r="U1" t="s">
-        <v>40</v>
-      </c>
       <c r="V1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -754,7 +751,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -766,10 +763,10 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
         <v>63</v>
-      </c>
-      <c r="I2" t="s">
-        <v>64</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
@@ -784,31 +781,31 @@
         <v>29</v>
       </c>
       <c r="N2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" t="s">
         <v>65</v>
       </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" t="s">
-        <v>66</v>
-      </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T2" t="s">
         <v>18</v>
       </c>
       <c r="U2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W2" t="s">
         <v>18</v>
@@ -824,7 +821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -864,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
@@ -882,19 +879,19 @@
         <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M1" t="s">
         <v>13</v>
@@ -903,51 +900,51 @@
         <v>15</v>
       </c>
       <c r="O1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
       </c>
       <c r="Q1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
         <v>32</v>
-      </c>
-      <c r="S1" t="s">
-        <v>33</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
       </c>
       <c r="U1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V1" t="s">
         <v>30</v>
       </c>
       <c r="W1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -956,7 +953,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -965,19 +962,19 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -986,43 +983,43 @@
         <v>16</v>
       </c>
       <c r="O2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P2" t="s">
         <v>27</v>
       </c>
       <c r="Q2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T2" t="s">
         <v>29</v>
       </c>
       <c r="U2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X2" t="s">
         <v>18</v>
       </c>
       <c r="Y2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z2" t="s">
         <v>18</v>
       </c>
       <c r="AA2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/MemberTransfer.xlsx
+++ b/sources/case/MemberTransfer.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
   <si>
     <t>CaseID</t>
   </si>
@@ -189,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mem_Transfer_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MemberTransfer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,6 +238,66 @@
   </si>
   <si>
     <t>${organization_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_1</t>
+  </si>
+  <si>
+    <t>测试13</t>
+  </si>
+  <si>
+    <t>microfastup-26</t>
+  </si>
+  <si>
+    <t>position_1</t>
+  </si>
+  <si>
+    <t>测试16</t>
+  </si>
+  <si>
+    <t>7e2dba5c-b2e4-11e7-93d8-5254001aba5d</t>
+  </si>
+  <si>
+    <t>7e2fc6f6-b2e4-11e7-93d8-5254001aba5d</t>
+  </si>
+  <si>
+    <t>organization_2</t>
+  </si>
+  <si>
+    <t>[{"uuid":"7e2e64d0-b2e4-11e7-93d8-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>2017-10-27T16:39:48+08:00</t>
+  </si>
+  <si>
+    <t>${organization_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.uuid}</t>
+  </si>
+  <si>
+    <t>${organization_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mem_Transfer_2</t>
+  </si>
+  <si>
+    <t>${position_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +630,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -609,7 +665,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -621,7 +677,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -636,10 +692,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -680,7 +736,7 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
@@ -692,7 +748,7 @@
         <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I1" t="s">
         <v>21</v>
@@ -710,7 +766,7 @@
         <v>28</v>
       </c>
       <c r="N1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O1" t="s">
         <v>30</v>
@@ -742,7 +798,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -751,7 +807,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -763,10 +819,10 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
         <v>62</v>
-      </c>
-      <c r="I2" t="s">
-        <v>63</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
@@ -781,13 +837,13 @@
         <v>29</v>
       </c>
       <c r="N2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" t="s">
         <v>64</v>
-      </c>
-      <c r="O2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P2" t="s">
-        <v>65</v>
       </c>
       <c r="Q2" t="s">
         <v>33</v>
@@ -808,6 +864,77 @@
         <v>42</v>
       </c>
       <c r="W2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -819,10 +946,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -891,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M1" t="s">
         <v>13</v>
@@ -900,7 +1027,7 @@
         <v>15</v>
       </c>
       <c r="O1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -918,7 +1045,7 @@
         <v>28</v>
       </c>
       <c r="U1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V1" t="s">
         <v>30</v>
@@ -953,7 +1080,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -974,7 +1101,7 @@
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -983,7 +1110,7 @@
         <v>16</v>
       </c>
       <c r="O2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P2" t="s">
         <v>27</v>
@@ -992,7 +1119,7 @@
         <v>51</v>
       </c>
       <c r="R2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S2" t="s">
         <v>33</v>
@@ -1001,10 +1128,10 @@
         <v>29</v>
       </c>
       <c r="U2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W2" t="s">
         <v>37</v>
@@ -1019,6 +1146,89 @@
         <v>18</v>
       </c>
       <c r="AA2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" t="s">
+        <v>74</v>
+      </c>
+      <c r="U3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" t="s">
+        <v>80</v>
+      </c>
+      <c r="W3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" t="s">
         <v>53</v>
       </c>
     </row>
